--- a/excel/NCEI Submission Package Template.xlsx
+++ b/excel/NCEI Submission Package Template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="People &amp; Projects" sheetId="1" r:id="rId1"/>
@@ -284,22 +284,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -313,6 +305,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -652,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -665,45 +671,45 @@
     <col min="8" max="8" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="11" customFormat="1" ht="70" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" s="7" customFormat="1" ht="70" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="7" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="15" customFormat="1" ht="63" customHeight="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8" s="11" customFormat="1" ht="63" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -761,12 +767,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="2" width="14.5" style="18"/>
     <col min="3" max="3" width="21.1640625" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
@@ -774,71 +781,71 @@
     <col min="8" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" ht="116" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="116" customHeight="1">
+      <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="32" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="47" customHeight="1"/>
     <row r="4" spans="1:8" ht="39" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="12">
-      <c r="B7" s="2"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="12">
@@ -848,7 +855,7 @@
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="12">
-      <c r="B10" s="2"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="12">
@@ -867,7 +874,7 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="12">
-      <c r="B15" s="2"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
     </row>
@@ -876,7 +883,7 @@
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4" ht="12">
-      <c r="B17" s="2"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
     </row>
@@ -916,49 +923,49 @@
     <col min="7" max="7" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" ht="144" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="144" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="14" customFormat="1" ht="35" customHeight="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:7" s="10" customFormat="1" ht="35" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="9" t="s">
         <v>35</v>
       </c>
     </row>
@@ -991,49 +998,49 @@
     <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="10" customFormat="1" ht="176" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="176" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="32" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="122.25" customHeight="1"/>
     <row r="4" spans="1:5" ht="37" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
